--- a/weapons.xlsx
+++ b/weapons.xlsx
@@ -60,9 +60,6 @@
     <t>bang_xiao</t>
   </si>
   <si>
-    <t>bachui</t>
-  </si>
-  <si>
     <t>chui</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>The axe, or yue, is another weapon requiring the use of both hands, being an axehead mounted on a six-foot handle with a sharp point.</t>
+  </si>
+  <si>
+    <t>chui_ba</t>
   </si>
 </sst>
 </file>
@@ -191,10 +191,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -213,14 +213,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="weapons" displayName="weapons" ref="A2:F14" totalsRowShown="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="weapons" displayName="weapons" ref="A2:F14" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A2:F14"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="name" dataDxfId="6"/>
-    <tableColumn id="2" name="desc" dataDxfId="5"/>
-    <tableColumn id="3" name="damage" dataDxfId="4"/>
-    <tableColumn id="4" name="resilience" dataDxfId="3"/>
-    <tableColumn id="5" name="skill" dataDxfId="2"/>
+    <tableColumn id="1" name="name" dataDxfId="5"/>
+    <tableColumn id="2" name="desc" dataDxfId="4"/>
+    <tableColumn id="3" name="damage" dataDxfId="3"/>
+    <tableColumn id="4" name="resilience" dataDxfId="2"/>
+    <tableColumn id="5" name="skill" dataDxfId="1"/>
     <tableColumn id="6" name="price" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -493,7 +493,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,10 +567,10 @@
     </row>
     <row r="5" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -579,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
         <v>35</v>
@@ -587,10 +587,10 @@
     </row>
     <row r="6" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>25</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="7" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
         <v>15</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="8" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1">
         <v>40</v>
@@ -647,10 +647,10 @@
     </row>
     <row r="9" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -659,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="10" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -679,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1">
         <v>120</v>
@@ -687,10 +687,10 @@
     </row>
     <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -699,7 +699,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1">
         <v>50</v>
@@ -707,10 +707,10 @@
     </row>
     <row r="12" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -719,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1">
         <v>70</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1">
         <v>60</v>
@@ -747,10 +747,10 @@
     </row>
     <row r="14" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -759,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1">
         <v>65</v>
